--- a/biology/Botanique/Vitex_keniensis/Vitex_keniensis.xlsx
+++ b/biology/Botanique/Vitex_keniensis/Vitex_keniensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Vitex keniensis est une espèce d'arbuste. Elle fait partie de la famille des Verbenaceae selon la classification classique, ou de celle des Lamiaceae selon la classification phylogénétique.
 Elle est endémique au Kenya (et en Tanzanie). C'est une espèce vulnérable.
